--- a/tests/spectrum_etl/edc/single_cell_suspension.xlsx
+++ b/tests/spectrum_etl/edc/single_cell_suspension.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33820" yWindow="3760" windowWidth="25760" windowHeight="13880" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-33820" yWindow="3760" windowWidth="25760" windowHeight="13880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="5" r:id="rId1"/>
-    <sheet name="patient" sheetId="1" r:id="rId2"/>
+    <sheet name="patients" sheetId="1" r:id="rId2"/>
     <sheet name="surgeries" sheetId="2" r:id="rId3"/>
     <sheet name="specimens" sheetId="3" r:id="rId4"/>
     <sheet name="aliquots" sheetId="4" r:id="rId5"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>patient_mrn</t>
   </si>
@@ -75,9 +75,6 @@
     <t>blue cells are auto-generated by ID generation script</t>
   </si>
   <si>
-    <t>suergery id is patient_id+surgery_type+autoinc_intetger</t>
-  </si>
-  <si>
     <t>specimen_site</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>8, Other</t>
+  </si>
+  <si>
+    <t>SPECTRUM-OV-1</t>
+  </si>
+  <si>
+    <t>surgery id is patient_id+surgery_type+autoinc_integer</t>
   </si>
 </sst>
 </file>
@@ -200,11 +203,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -488,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,17 +526,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -543,26 +549,30 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,6 +605,9 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AA2" t="s">
         <v>5</v>
       </c>
@@ -605,6 +618,9 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AA4" t="s">
         <v>7</v>
       </c>
@@ -637,13 +653,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,62 +684,62 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tests/spectrum_etl/edc/single_cell_suspension.xlsx
+++ b/tests/spectrum_etl/edc/single_cell_suspension.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33820" yWindow="3760" windowWidth="25760" windowHeight="13880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-33820" yWindow="3760" windowWidth="25760" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>patient_mrn</t>
   </si>
@@ -57,9 +57,6 @@
     <t>3, Interval debulking</t>
   </si>
   <si>
-    <t>Notes per version</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>About this workbook</t>
   </si>
   <si>
-    <t>user only enters data into green cells</t>
-  </si>
-  <si>
-    <t>blue cells are auto-generated by ID generation script</t>
-  </si>
-  <si>
     <t>specimen_site</t>
   </si>
   <si>
@@ -136,13 +127,79 @@
   </si>
   <si>
     <t>surgery id is patient_id+surgery_type+autoinc_integer</t>
+  </si>
+  <si>
+    <t>User Notes per version</t>
+  </si>
+  <si>
+    <t>About this Workbook</t>
+  </si>
+  <si>
+    <t>This workbook is designed for the electronic data capture of specimen and aliquot data collected from a single patient</t>
+  </si>
+  <si>
+    <t>To minimize human error, the ids for surgeries, specimens and aliquots in this workbook may be generated by running the ID-Generator tool on this workbook</t>
+  </si>
+  <si>
+    <t>Terminology</t>
+  </si>
+  <si>
+    <t>Derived Cell: A cell in this workbook whose value has been auto-generated by using information from one or more other cells (immutable and colored blue)</t>
+  </si>
+  <si>
+    <t>Processed Cell: A cell in this workbook that has been used in the processing of a value in a derived cell (immutable and colored blue)</t>
+  </si>
+  <si>
+    <t>New Cell: A cell in this workbook that has been entered either manually or programmatically (auto-generated) but has not been used yet to generate one or more derived cells (mutable and no color)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage </t>
+  </si>
+  <si>
+    <t>1. Enter 0 or 1 new patient_id. Populating more than one new patient_id cell is an error</t>
+  </si>
+  <si>
+    <t>2. Enter 0 or 1 new surgery_type. Populating more than one new surgery_type cell is an error</t>
+  </si>
+  <si>
+    <t>3. Enter 1 or more specimen sites and counts</t>
+  </si>
+  <si>
+    <t>4. Process the workbook with the ID-Generator tool to auto-generate IDs in the surgeries, specimens and aliquots worksheets</t>
+  </si>
+  <si>
+    <t>5. Once the workbook is processed, derived and processed cells will be colored blue and locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    This means that these cells are immutable and their values must not be changed</t>
+  </si>
+  <si>
+    <t>6. Make sure to add notes in the NOTES worksheet of all actions taken in this version of the workbook</t>
+  </si>
+  <si>
+    <t>7. Commit the workbook to the git repository</t>
+  </si>
+  <si>
+    <t>Fixing errors in derived and processed cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. If there is a need to change derived and processed cell values, unprotect the worksheet [todo provide instructions] and deprecate an existing cell by coloring the background Gray. </t>
+  </si>
+  <si>
+    <t>2. Run the ID-Generator tool on the workbook</t>
+  </si>
+  <si>
+    <t>3. The ID-Generator will create a new workbook version in which all derived cells of deprecated cells will also be marked as deprecated cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Follow the usage pattern above to add new values with the changes needed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,8 +223,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +256,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -211,6 +289,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -492,51 +573,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="83.83203125" customWidth="1"/>
+    <col min="3" max="3" width="162.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I6" t="s">
-        <v>23</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +848,7 @@
         <v>1234567</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -583,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,13 +930,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -684,62 +961,62 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tests/spectrum_etl/edc/single_cell_suspension.xlsx
+++ b/tests/spectrum_etl/edc/single_cell_suspension.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33820" yWindow="3760" windowWidth="25760" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="-35780" yWindow="1680" windowWidth="31200" windowHeight="20360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>patient_mrn</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t xml:space="preserve">4. Follow the usage pattern above to add new values with the changes needed </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>specimen_id_fk</t>
+  </si>
+  <si>
+    <t>add notes for hacking the sheet</t>
+  </si>
+  <si>
+    <t>add a field to show row is locked</t>
   </si>
 </sst>
 </file>
@@ -239,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +282,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,17 +305,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -573,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,6 +844,16 @@
         <v>53</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,14 +883,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>1234567</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -860,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,22 +921,22 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="AA3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="AA4" t="s">
         <v>7</v>
       </c>
@@ -915,10 +954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,7 +967,7 @@
     <col min="3" max="3" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -937,6 +976,81 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -946,20 +1060,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -973,56 +1088,65 @@
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA2" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F3" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA4" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA5" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA6" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA7" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA8" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA9" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A302">
-      <formula1>$AA$2:$AA$9</formula1>
+      <formula1>$AB$2:$AB$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/spectrum_etl/edc/single_cell_suspension.xlsx
+++ b/tests/spectrum_etl/edc/single_cell_suspension.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35780" yWindow="1680" windowWidth="31200" windowHeight="20360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-31840" yWindow="2000" windowWidth="29200" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>patient_mrn</t>
   </si>
@@ -123,9 +123,6 @@
     <t>8, Other</t>
   </si>
   <si>
-    <t>SPECTRUM-OV-1</t>
-  </si>
-  <si>
     <t>surgery id is patient_id+surgery_type+autoinc_integer</t>
   </si>
   <si>
@@ -211,6 +208,18 @@
   </si>
   <si>
     <t>add a field to show row is locked</t>
+  </si>
+  <si>
+    <t>SPECTRUM-OV-001</t>
+  </si>
+  <si>
+    <t>SPECTRUM-OV-001-1</t>
+  </si>
+  <si>
+    <t>SPECTRUM-OV-001-1-site-count</t>
+  </si>
+  <si>
+    <t>specimen count</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,12 +291,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,14 +301,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -316,16 +323,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -603,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -615,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
@@ -640,7 +650,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,21 +686,21 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -702,28 +712,28 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,63 +745,63 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,45 +823,45 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -863,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,8 +895,8 @@
       <c r="A2" s="4">
         <v>12345</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -897,54 +907,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA4" t="s">
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A102">
-      <formula1>$AA$2:$AA$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B102">
+      <formula1>$AB$2:$AB$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,17 +972,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -979,78 +998,88 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
